--- a/inst/web_xls_dic.xlsx
+++ b/inst/web_xls_dic.xlsx
@@ -6235,7 +6235,7 @@
   <dimension ref="A1:N506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7180,7 +7180,10 @@
       <c r="H30" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2" t="str">
+        <f>"+1"</f>
+        <v>+1</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>

--- a/inst/web_xls_dic.xlsx
+++ b/inst/web_xls_dic.xlsx
@@ -6235,7 +6235,7 @@
   <dimension ref="A1:N506"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7181,8 +7181,8 @@
         <v>1026</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f>"+1"</f>
-        <v>+1</v>
+        <f>";+1"</f>
+        <v>;+1</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>

--- a/inst/web_xls_dic.xlsx
+++ b/inst/web_xls_dic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="1915">
   <si>
     <t>colname</t>
   </si>
@@ -3320,9 +3320,6 @@
     <t>q_39</t>
   </si>
   <si>
-    <t>4-&gt;3</t>
-  </si>
-  <si>
     <t>q_40</t>
   </si>
   <si>
@@ -5748,6 +5745,21 @@
   </si>
   <si>
     <t>q_99.b2</t>
+  </si>
+  <si>
+    <t>to_integer</t>
+  </si>
+  <si>
+    <t>4-&gt;3;0-&gt;NA</t>
+  </si>
+  <si>
+    <t>to_numeric</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>0-&gt;NA;-1</t>
   </si>
 </sst>
 </file>
@@ -5819,7 +5831,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5862,8 +5874,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Dziesiętny 2" xfId="2"/>
@@ -6234,8 +6248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A438" workbookViewId="0">
+      <selection activeCell="I441" sqref="I441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6262,22 +6276,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1861</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1862</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1863</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1864</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>1865</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -6300,7 +6314,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1058</v>
@@ -6360,7 +6374,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
@@ -6390,7 +6404,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>18</v>
@@ -6427,7 +6441,7 @@
         <v>1026</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -6452,7 +6466,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>1027</v>
@@ -6482,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>1028</v>
@@ -6514,7 +6528,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>1030</v>
@@ -6585,7 +6599,7 @@
         <v>1026</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -6617,7 +6631,7 @@
         <v>1026</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -6649,7 +6663,7 @@
         <v>1026</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -6681,7 +6695,7 @@
         <v>1026</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -6713,7 +6727,7 @@
         <v>1026</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -6745,7 +6759,7 @@
         <v>1026</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -6777,7 +6791,7 @@
         <v>1026</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -6802,7 +6816,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>1061</v>
@@ -6834,7 +6848,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>1040</v>
@@ -6866,7 +6880,7 @@
         <v>8</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>1041</v>
@@ -6898,7 +6912,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>1042</v>
@@ -6930,7 +6944,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>1043</v>
@@ -6953,7 +6967,7 @@
         <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>76</v>
@@ -6983,7 +6997,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>76</v>
@@ -7013,7 +7027,7 @@
         <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>76</v>
@@ -7043,7 +7057,7 @@
         <v>82</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>76</v>
@@ -7073,7 +7087,7 @@
         <v>84</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>76</v>
@@ -7103,7 +7117,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>76</v>
@@ -7149,7 +7163,7 @@
         <v>1026</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -7214,7 +7228,7 @@
         <v>1026</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -7308,7 +7322,7 @@
         <v>1026</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -7385,7 +7399,7 @@
         <v>121</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>119</v>
@@ -7420,7 +7434,7 @@
         <v>122</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>76</v>
@@ -7450,7 +7464,7 @@
         <v>124</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>76</v>
@@ -7480,7 +7494,7 @@
         <v>126</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>76</v>
@@ -7510,7 +7524,7 @@
         <v>128</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>76</v>
@@ -7540,7 +7554,7 @@
         <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>76</v>
@@ -7570,7 +7584,7 @@
         <v>132</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>76</v>
@@ -7600,7 +7614,7 @@
         <v>134</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>76</v>
@@ -7630,7 +7644,7 @@
         <v>136</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>76</v>
@@ -7660,7 +7674,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>76</v>
@@ -7690,7 +7704,7 @@
         <v>140</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>76</v>
@@ -7720,7 +7734,7 @@
         <v>142</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>76</v>
@@ -7750,7 +7764,7 @@
         <v>144</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>76</v>
@@ -7780,7 +7794,7 @@
         <v>146</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>76</v>
@@ -7810,7 +7824,7 @@
         <v>148</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>76</v>
@@ -7840,7 +7854,7 @@
         <v>150</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>76</v>
@@ -7870,7 +7884,7 @@
         <v>152</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>76</v>
@@ -7900,7 +7914,7 @@
         <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>76</v>
@@ -7930,7 +7944,7 @@
         <v>156</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>76</v>
@@ -7960,7 +7974,7 @@
         <v>158</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>76</v>
@@ -7990,7 +8004,7 @@
         <v>160</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>76</v>
@@ -8260,7 +8274,7 @@
         <v>1026</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -8285,7 +8299,7 @@
         <v>8</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>1094</v>
@@ -8338,7 +8352,7 @@
         <v>194</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>76</v>
@@ -8368,7 +8382,7 @@
         <v>196</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>76</v>
@@ -8398,7 +8412,7 @@
         <v>198</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>76</v>
@@ -8428,7 +8442,7 @@
         <v>200</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>76</v>
@@ -8473,8 +8487,8 @@
       <c r="H72" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>1101</v>
+      <c r="I72" s="45" t="s">
+        <v>1911</v>
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
@@ -8500,7 +8514,7 @@
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>1026</v>
@@ -8532,7 +8546,7 @@
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>1026</v>
@@ -8564,13 +8578,13 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
@@ -8596,13 +8610,13 @@
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
@@ -8628,13 +8642,13 @@
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -8659,12 +8673,14 @@
         <v>8</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H78" s="2"/>
+        <v>1108</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>1910</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -8689,12 +8705,14 @@
         <v>8</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H79" s="2"/>
+        <v>1109</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>1910</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -8719,12 +8737,14 @@
         <v>8</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="H80" s="2"/>
+        <v>1110</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>1910</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -8750,13 +8770,13 @@
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -8781,12 +8801,14 @@
         <v>8</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>1112</v>
+      </c>
+      <c r="H82" s="42" t="s">
+        <v>1910</v>
+      </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
@@ -8811,12 +8833,14 @@
         <v>8</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H83" s="2"/>
+        <v>1113</v>
+      </c>
+      <c r="H83" s="42" t="s">
+        <v>1910</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
@@ -8841,12 +8865,14 @@
         <v>8</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H84" s="2"/>
+        <v>1114</v>
+      </c>
+      <c r="H84" s="42" t="s">
+        <v>1910</v>
+      </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
@@ -8859,10 +8885,10 @@
         <v>243</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
@@ -8872,7 +8898,7 @@
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>1026</v>
@@ -8889,7 +8915,7 @@
         <v>245</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>8</v>
@@ -8915,10 +8941,10 @@
         <v>249</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>12</v>
@@ -8928,7 +8954,7 @@
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>1026</v>
@@ -8945,10 +8971,10 @@
         <v>252</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>12</v>
@@ -8958,7 +8984,7 @@
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="4" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>1026</v>
@@ -8975,10 +9001,10 @@
         <v>255</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>12</v>
@@ -8988,7 +9014,7 @@
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>1026</v>
@@ -9005,10 +9031,10 @@
         <v>258</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>12</v>
@@ -9018,7 +9044,7 @@
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>1026</v>
@@ -9035,10 +9061,10 @@
         <v>261</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>12</v>
@@ -9048,7 +9074,7 @@
       </c>
       <c r="F91" s="2"/>
       <c r="G91" s="4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>1026</v>
@@ -9065,10 +9091,10 @@
         <v>264</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>12</v>
@@ -9078,7 +9104,7 @@
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>1026</v>
@@ -9095,10 +9121,10 @@
         <v>266</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>12</v>
@@ -9108,7 +9134,7 @@
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>1026</v>
@@ -9125,10 +9151,10 @@
         <v>268</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>12</v>
@@ -9138,7 +9164,7 @@
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>1026</v>
@@ -9155,10 +9181,10 @@
         <v>270</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>12</v>
@@ -9168,7 +9194,7 @@
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>1026</v>
@@ -9185,10 +9211,10 @@
         <v>272</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>12</v>
@@ -9198,7 +9224,7 @@
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>1026</v>
@@ -9215,10 +9241,10 @@
         <v>274</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>12</v>
@@ -9228,7 +9254,7 @@
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>1026</v>
@@ -9245,10 +9271,10 @@
         <v>276</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>12</v>
@@ -9258,7 +9284,7 @@
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>1026</v>
@@ -9275,10 +9301,10 @@
         <v>278</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>12</v>
@@ -9288,7 +9314,7 @@
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>1026</v>
@@ -9305,10 +9331,10 @@
         <v>280</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>12</v>
@@ -9318,7 +9344,7 @@
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>1026</v>
@@ -9335,10 +9361,10 @@
         <v>282</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>12</v>
@@ -9348,7 +9374,7 @@
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>1026</v>
@@ -9365,10 +9391,10 @@
         <v>284</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>12</v>
@@ -9378,7 +9404,7 @@
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>1026</v>
@@ -9408,7 +9434,7 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>1026</v>
@@ -9438,7 +9464,7 @@
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>1026</v>
@@ -9467,13 +9493,15 @@
         <v>8</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+        <v>1378</v>
+      </c>
+      <c r="H105" s="43" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I105" s="45"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
@@ -9498,7 +9526,7 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="1" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>1026</v>
@@ -9527,13 +9555,15 @@
         <v>8</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
+        <v>1380</v>
+      </c>
+      <c r="H107" s="44" t="s">
+        <v>1910</v>
+      </c>
+      <c r="I107" s="45"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
@@ -9557,7 +9587,7 @@
         <v>8</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="2"/>
@@ -9585,10 +9615,10 @@
         <v>8</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>1026</v>
@@ -9617,10 +9647,10 @@
         <v>8</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>1026</v>
@@ -9649,10 +9679,10 @@
         <v>8</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>1026</v>
@@ -9681,10 +9711,10 @@
         <v>8</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>1026</v>
@@ -9713,10 +9743,10 @@
         <v>8</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>1026</v>
@@ -9745,10 +9775,10 @@
         <v>8</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>1026</v>
@@ -9777,10 +9807,10 @@
         <v>8</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>1026</v>
@@ -9809,10 +9839,10 @@
         <v>8</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>1026</v>
@@ -9841,10 +9871,10 @@
         <v>8</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>1026</v>
@@ -9873,10 +9903,10 @@
         <v>8</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>1026</v>
@@ -9905,10 +9935,10 @@
         <v>8</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>1026</v>
@@ -9937,10 +9967,10 @@
         <v>8</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>1026</v>
@@ -9969,13 +9999,17 @@
         <v>8</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
+        <v>1393</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>1912</v>
+      </c>
+      <c r="I121" s="45" t="s">
+        <v>1913</v>
+      </c>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
@@ -9999,12 +10033,14 @@
         <v>8</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1395</v>
-      </c>
-      <c r="H122" s="2"/>
+        <v>1394</v>
+      </c>
+      <c r="H122" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
@@ -10029,10 +10065,10 @@
         <v>8</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>1029</v>
@@ -10061,7 +10097,7 @@
         <v>8</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -10089,10 +10125,10 @@
         <v>8</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>1026</v>
@@ -10121,10 +10157,10 @@
         <v>8</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>1026</v>
@@ -10153,10 +10189,10 @@
         <v>8</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>1026</v>
@@ -10185,10 +10221,10 @@
         <v>8</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>1026</v>
@@ -10217,10 +10253,10 @@
         <v>8</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>1026</v>
@@ -10249,10 +10285,10 @@
         <v>8</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>1026</v>
@@ -10281,10 +10317,10 @@
         <v>8</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>1026</v>
@@ -10313,10 +10349,10 @@
         <v>8</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>1026</v>
@@ -10345,10 +10381,10 @@
         <v>8</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>1026</v>
@@ -10377,10 +10413,10 @@
         <v>8</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>1026</v>
@@ -10409,10 +10445,10 @@
         <v>8</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>1026</v>
@@ -10441,10 +10477,10 @@
         <v>8</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>1026</v>
@@ -10473,12 +10509,14 @@
         <v>8</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1409</v>
-      </c>
-      <c r="H137" s="2"/>
+        <v>1408</v>
+      </c>
+      <c r="H137" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
@@ -10503,12 +10541,14 @@
         <v>8</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>1410</v>
-      </c>
-      <c r="H138" s="2"/>
+        <v>1409</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>1912</v>
+      </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
@@ -10533,10 +10573,10 @@
         <v>8</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>1029</v>
@@ -10565,12 +10605,14 @@
         <v>8</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="H140" s="2"/>
+        <v>1411</v>
+      </c>
+      <c r="H140" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
@@ -10595,12 +10637,14 @@
         <v>8</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1413</v>
-      </c>
-      <c r="H141" s="2"/>
+        <v>1412</v>
+      </c>
+      <c r="H141" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
@@ -10625,12 +10669,14 @@
         <v>8</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="H142" s="2"/>
+        <v>1413</v>
+      </c>
+      <c r="H142" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
@@ -10652,11 +10698,11 @@
         <v>12</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F143" s="2"/>
       <c r="G143" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>1026</v>
@@ -10685,12 +10731,14 @@
         <v>8</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>1416</v>
-      </c>
-      <c r="H144" s="2"/>
+        <v>1415</v>
+      </c>
+      <c r="H144" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
@@ -10715,12 +10763,14 @@
         <v>8</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="H145" s="2"/>
+        <v>1416</v>
+      </c>
+      <c r="H145" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
@@ -10745,12 +10795,14 @@
         <v>8</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="H146" s="2"/>
+        <v>1417</v>
+      </c>
+      <c r="H146" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
@@ -10776,7 +10828,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>1026</v>
@@ -10805,12 +10857,14 @@
         <v>8</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>1420</v>
-      </c>
-      <c r="H148" s="2"/>
+        <v>1419</v>
+      </c>
+      <c r="H148" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
@@ -10835,12 +10889,14 @@
         <v>8</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>1421</v>
-      </c>
-      <c r="H149" s="2"/>
+        <v>1420</v>
+      </c>
+      <c r="H149" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
@@ -10865,12 +10921,14 @@
         <v>8</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>1422</v>
-      </c>
-      <c r="H150" s="2"/>
+        <v>1421</v>
+      </c>
+      <c r="H150" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
@@ -10896,7 +10954,7 @@
       </c>
       <c r="F151" s="2"/>
       <c r="G151" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>1026</v>
@@ -10925,12 +10983,14 @@
         <v>8</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1424</v>
-      </c>
-      <c r="H152" s="2"/>
+        <v>1423</v>
+      </c>
+      <c r="H152" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
@@ -10955,12 +11015,14 @@
         <v>8</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>1425</v>
-      </c>
-      <c r="H153" s="2"/>
+        <v>1424</v>
+      </c>
+      <c r="H153" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
@@ -10985,12 +11047,14 @@
         <v>8</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>1426</v>
-      </c>
-      <c r="H154" s="2"/>
+        <v>1425</v>
+      </c>
+      <c r="H154" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
@@ -11016,7 +11080,7 @@
       </c>
       <c r="F155" s="2"/>
       <c r="G155" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>1026</v>
@@ -11045,12 +11109,14 @@
         <v>8</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1428</v>
-      </c>
-      <c r="H156" s="2"/>
+        <v>1427</v>
+      </c>
+      <c r="H156" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
@@ -11075,12 +11141,14 @@
         <v>8</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1429</v>
-      </c>
-      <c r="H157" s="2"/>
+        <v>1428</v>
+      </c>
+      <c r="H157" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
@@ -11105,12 +11173,14 @@
         <v>8</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="H158" s="2"/>
+        <v>1429</v>
+      </c>
+      <c r="H158" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
@@ -11136,7 +11206,7 @@
       </c>
       <c r="F159" s="2"/>
       <c r="G159" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>1026</v>
@@ -11165,12 +11235,14 @@
         <v>8</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H160" s="2"/>
+        <v>1431</v>
+      </c>
+      <c r="H160" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
@@ -11195,12 +11267,14 @@
         <v>8</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>1433</v>
-      </c>
-      <c r="H161" s="2"/>
+        <v>1432</v>
+      </c>
+      <c r="H161" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
@@ -11225,12 +11299,14 @@
         <v>8</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1434</v>
-      </c>
-      <c r="H162" s="2"/>
+        <v>1433</v>
+      </c>
+      <c r="H162" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
@@ -11256,7 +11332,7 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>1026</v>
@@ -11285,12 +11361,14 @@
         <v>8</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="H164" s="2"/>
+        <v>1435</v>
+      </c>
+      <c r="H164" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
@@ -11315,12 +11393,14 @@
         <v>8</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1437</v>
-      </c>
-      <c r="H165" s="2"/>
+        <v>1436</v>
+      </c>
+      <c r="H165" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
@@ -11345,12 +11425,14 @@
         <v>8</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1438</v>
-      </c>
-      <c r="H166" s="2"/>
+        <v>1437</v>
+      </c>
+      <c r="H166" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
@@ -11376,7 +11458,7 @@
       </c>
       <c r="F167" s="2"/>
       <c r="G167" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>1026</v>
@@ -11406,13 +11488,13 @@
       </c>
       <c r="F168" s="2"/>
       <c r="G168" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
@@ -11438,13 +11520,13 @@
       </c>
       <c r="F169" s="2"/>
       <c r="G169" s="4" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
@@ -11470,13 +11552,13 @@
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
@@ -11502,13 +11584,13 @@
       </c>
       <c r="F171" s="2"/>
       <c r="G171" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
@@ -11524,7 +11606,7 @@
         <v>407</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>76</v>
@@ -11534,7 +11616,7 @@
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="4" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>1050</v>
@@ -11554,7 +11636,7 @@
         <v>409</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>76</v>
@@ -11564,7 +11646,7 @@
       </c>
       <c r="F173" s="2"/>
       <c r="G173" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>1050</v>
@@ -11584,7 +11666,7 @@
         <v>411</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>76</v>
@@ -11594,7 +11676,7 @@
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="4" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>1050</v>
@@ -11614,7 +11696,7 @@
         <v>413</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>76</v>
@@ -11624,7 +11706,7 @@
       </c>
       <c r="F175" s="2"/>
       <c r="G175" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>1050</v>
@@ -11644,7 +11726,7 @@
         <v>415</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>76</v>
@@ -11654,7 +11736,7 @@
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>1050</v>
@@ -11674,7 +11756,7 @@
         <v>417</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>76</v>
@@ -11684,7 +11766,7 @@
       </c>
       <c r="F177" s="2"/>
       <c r="G177" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>1050</v>
@@ -11704,7 +11786,7 @@
         <v>419</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>76</v>
@@ -11714,7 +11796,7 @@
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>1050</v>
@@ -11734,7 +11816,7 @@
         <v>421</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>76</v>
@@ -11744,7 +11826,7 @@
       </c>
       <c r="F179" s="2"/>
       <c r="G179" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>1050</v>
@@ -11764,7 +11846,7 @@
         <v>423</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>76</v>
@@ -11774,7 +11856,7 @@
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>1050</v>
@@ -11794,7 +11876,7 @@
         <v>425</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>76</v>
@@ -11804,7 +11886,7 @@
       </c>
       <c r="F181" s="2"/>
       <c r="G181" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>1050</v>
@@ -11824,7 +11906,7 @@
         <v>427</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>76</v>
@@ -11834,7 +11916,7 @@
       </c>
       <c r="F182" s="2"/>
       <c r="G182" s="4" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>1050</v>
@@ -11854,7 +11936,7 @@
         <v>429</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>76</v>
@@ -11864,7 +11946,7 @@
       </c>
       <c r="F183" s="2"/>
       <c r="G183" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>1050</v>
@@ -11884,7 +11966,7 @@
         <v>431</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>76</v>
@@ -11894,7 +11976,7 @@
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="4" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>1050</v>
@@ -11914,7 +11996,7 @@
         <v>433</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>76</v>
@@ -11924,7 +12006,7 @@
       </c>
       <c r="F185" s="2"/>
       <c r="G185" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>1050</v>
@@ -11944,7 +12026,7 @@
         <v>435</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>76</v>
@@ -11954,7 +12036,7 @@
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>1050</v>
@@ -11974,7 +12056,7 @@
         <v>437</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>76</v>
@@ -11984,7 +12066,7 @@
       </c>
       <c r="F187" s="2"/>
       <c r="G187" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>1050</v>
@@ -12004,7 +12086,7 @@
         <v>439</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>76</v>
@@ -12014,7 +12096,7 @@
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="4" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>1050</v>
@@ -12034,7 +12116,7 @@
         <v>441</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>76</v>
@@ -12044,7 +12126,7 @@
       </c>
       <c r="F189" s="2"/>
       <c r="G189" s="4" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>1050</v>
@@ -12064,7 +12146,7 @@
         <v>443</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>76</v>
@@ -12074,7 +12156,7 @@
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="4" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>1050</v>
@@ -12094,7 +12176,7 @@
         <v>445</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>76</v>
@@ -12104,7 +12186,7 @@
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="4" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>1050</v>
@@ -12124,7 +12206,7 @@
         <v>447</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>76</v>
@@ -12134,7 +12216,7 @@
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>1050</v>
@@ -12154,7 +12236,7 @@
         <v>449</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>76</v>
@@ -12164,7 +12246,7 @@
       </c>
       <c r="F193" s="2"/>
       <c r="G193" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>1050</v>
@@ -12184,7 +12266,7 @@
         <v>451</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>76</v>
@@ -12194,7 +12276,7 @@
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>1050</v>
@@ -12214,7 +12296,7 @@
         <v>453</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>76</v>
@@ -12224,7 +12306,7 @@
       </c>
       <c r="F195" s="2"/>
       <c r="G195" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>1050</v>
@@ -12244,7 +12326,7 @@
         <v>455</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>76</v>
@@ -12254,7 +12336,7 @@
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>1050</v>
@@ -12274,7 +12356,7 @@
         <v>457</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>76</v>
@@ -12284,7 +12366,7 @@
       </c>
       <c r="F197" s="2"/>
       <c r="G197" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>1050</v>
@@ -12304,7 +12386,7 @@
         <v>459</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>76</v>
@@ -12314,7 +12396,7 @@
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>1050</v>
@@ -12334,7 +12416,7 @@
         <v>461</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>76</v>
@@ -12344,7 +12426,7 @@
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>1050</v>
@@ -12364,7 +12446,7 @@
         <v>463</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>76</v>
@@ -12374,7 +12456,7 @@
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>1050</v>
@@ -12394,7 +12476,7 @@
         <v>465</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>76</v>
@@ -12404,7 +12486,7 @@
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="4" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>1050</v>
@@ -12424,7 +12506,7 @@
         <v>467</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>76</v>
@@ -12434,7 +12516,7 @@
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="4" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>1050</v>
@@ -12463,12 +12545,14 @@
         <v>8</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>1477</v>
-      </c>
-      <c r="H203" s="2"/>
+        <v>1476</v>
+      </c>
+      <c r="H203" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
@@ -12493,12 +12577,14 @@
         <v>8</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>1478</v>
-      </c>
-      <c r="H204" s="2"/>
+        <v>1477</v>
+      </c>
+      <c r="H204" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
@@ -12523,12 +12609,14 @@
         <v>8</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H205" s="2"/>
+        <v>1478</v>
+      </c>
+      <c r="H205" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
@@ -12554,7 +12642,7 @@
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>1026</v>
@@ -12583,12 +12671,14 @@
         <v>8</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1481</v>
-      </c>
-      <c r="H207" s="2"/>
+        <v>1480</v>
+      </c>
+      <c r="H207" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
@@ -12614,7 +12704,7 @@
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>1026</v>
@@ -12643,12 +12733,14 @@
         <v>8</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H209" s="2"/>
+        <v>1482</v>
+      </c>
+      <c r="H209" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
@@ -12673,12 +12765,14 @@
         <v>8</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1484</v>
-      </c>
-      <c r="H210" s="2"/>
+        <v>1483</v>
+      </c>
+      <c r="H210" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
@@ -12703,12 +12797,14 @@
         <v>8</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>1485</v>
-      </c>
-      <c r="H211" s="2"/>
+        <v>1484</v>
+      </c>
+      <c r="H211" s="45" t="s">
+        <v>1912</v>
+      </c>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
@@ -12734,7 +12830,7 @@
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>1026</v>
@@ -12766,7 +12862,7 @@
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>1026</v>
@@ -12796,7 +12892,7 @@
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>1026</v>
@@ -12828,7 +12924,7 @@
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>1026</v>
@@ -12860,7 +12956,7 @@
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>1026</v>
@@ -12892,7 +12988,7 @@
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>1026</v>
@@ -12924,7 +13020,7 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>1026</v>
@@ -12956,7 +13052,7 @@
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>1026</v>
@@ -12988,7 +13084,7 @@
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="H220" s="2" t="s">
         <v>1026</v>
@@ -13018,7 +13114,7 @@
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>1026</v>
@@ -13050,7 +13146,7 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>1026</v>
@@ -13082,7 +13178,7 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="H223" s="2" t="s">
         <v>1026</v>
@@ -13104,7 +13200,7 @@
         <v>533</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>76</v>
@@ -13114,7 +13210,7 @@
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>1050</v>
@@ -13134,7 +13230,7 @@
         <v>535</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>76</v>
@@ -13144,7 +13240,7 @@
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="H225" s="2" t="s">
         <v>1050</v>
@@ -13164,7 +13260,7 @@
         <v>537</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>76</v>
@@ -13174,7 +13270,7 @@
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="H226" s="2" t="s">
         <v>1050</v>
@@ -13194,7 +13290,7 @@
         <v>539</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>76</v>
@@ -13204,7 +13300,7 @@
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>1050</v>
@@ -13224,7 +13320,7 @@
         <v>541</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>76</v>
@@ -13234,7 +13330,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="H228" s="2" t="s">
         <v>1050</v>
@@ -13254,7 +13350,7 @@
         <v>543</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>76</v>
@@ -13264,7 +13360,7 @@
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H229" s="2" t="s">
         <v>1050</v>
@@ -13284,7 +13380,7 @@
         <v>545</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>76</v>
@@ -13294,7 +13390,7 @@
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>1050</v>
@@ -13314,7 +13410,7 @@
         <v>547</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>76</v>
@@ -13324,7 +13420,7 @@
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="4" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>1050</v>
@@ -13344,7 +13440,7 @@
         <v>549</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>76</v>
@@ -13354,7 +13450,7 @@
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>1050</v>
@@ -13374,7 +13470,7 @@
         <v>551</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>76</v>
@@ -13384,7 +13480,7 @@
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="4" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>1050</v>
@@ -13404,7 +13500,7 @@
         <v>553</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>76</v>
@@ -13414,7 +13510,7 @@
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H234" s="2" t="s">
         <v>1050</v>
@@ -13434,7 +13530,7 @@
         <v>555</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>76</v>
@@ -13444,7 +13540,7 @@
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>1050</v>
@@ -13464,7 +13560,7 @@
         <v>557</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>76</v>
@@ -13474,7 +13570,7 @@
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>1050</v>
@@ -13494,7 +13590,7 @@
         <v>559</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>76</v>
@@ -13504,7 +13600,7 @@
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="4" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>1050</v>
@@ -13524,7 +13620,7 @@
         <v>561</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>76</v>
@@ -13534,7 +13630,7 @@
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>1050</v>
@@ -13554,7 +13650,7 @@
         <v>563</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>76</v>
@@ -13564,7 +13660,7 @@
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="H239" s="2" t="s">
         <v>1050</v>
@@ -13584,7 +13680,7 @@
         <v>565</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>76</v>
@@ -13594,7 +13690,7 @@
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>1050</v>
@@ -13614,7 +13710,7 @@
         <v>567</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>76</v>
@@ -13624,7 +13720,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>1050</v>
@@ -13644,7 +13740,7 @@
         <v>569</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>76</v>
@@ -13654,7 +13750,7 @@
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="H242" s="2" t="s">
         <v>1050</v>
@@ -13674,7 +13770,7 @@
         <v>571</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>76</v>
@@ -13684,7 +13780,7 @@
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>1050</v>
@@ -13704,7 +13800,7 @@
         <v>573</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>76</v>
@@ -13714,7 +13810,7 @@
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="H244" s="2" t="s">
         <v>1050</v>
@@ -13734,7 +13830,7 @@
         <v>575</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>76</v>
@@ -13744,7 +13840,7 @@
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="H245" s="2" t="s">
         <v>1050</v>
@@ -13764,7 +13860,7 @@
         <v>577</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>76</v>
@@ -13774,7 +13870,7 @@
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="4" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>1050</v>
@@ -13794,7 +13890,7 @@
         <v>579</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>76</v>
@@ -13804,7 +13900,7 @@
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="4" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>1050</v>
@@ -13824,7 +13920,7 @@
         <v>581</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>76</v>
@@ -13834,7 +13930,7 @@
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>1050</v>
@@ -13854,7 +13950,7 @@
         <v>583</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>76</v>
@@ -13864,7 +13960,7 @@
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>1050</v>
@@ -13884,7 +13980,7 @@
         <v>585</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>76</v>
@@ -13894,7 +13990,7 @@
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>1050</v>
@@ -13914,7 +14010,7 @@
         <v>587</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>76</v>
@@ -13924,7 +14020,7 @@
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="4" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>1050</v>
@@ -13944,7 +14040,7 @@
         <v>589</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>76</v>
@@ -13954,7 +14050,7 @@
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>1050</v>
@@ -13974,7 +14070,7 @@
         <v>591</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>76</v>
@@ -13984,7 +14080,7 @@
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>1050</v>
@@ -14004,7 +14100,7 @@
         <v>593</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>76</v>
@@ -14014,7 +14110,7 @@
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>1050</v>
@@ -14034,7 +14130,7 @@
         <v>595</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>76</v>
@@ -14044,7 +14140,7 @@
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H255" s="2" t="s">
         <v>1050</v>
@@ -14064,7 +14160,7 @@
         <v>597</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>76</v>
@@ -14074,7 +14170,7 @@
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H256" s="2" t="s">
         <v>1050</v>
@@ -14094,7 +14190,7 @@
         <v>599</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>76</v>
@@ -14104,7 +14200,7 @@
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>1050</v>
@@ -14124,7 +14220,7 @@
         <v>601</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>76</v>
@@ -14134,7 +14230,7 @@
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>1050</v>
@@ -14154,7 +14250,7 @@
         <v>603</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>76</v>
@@ -14164,7 +14260,7 @@
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H259" s="2" t="s">
         <v>1050</v>
@@ -14184,7 +14280,7 @@
         <v>605</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>76</v>
@@ -14194,7 +14290,7 @@
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>1050</v>
@@ -14214,7 +14310,7 @@
         <v>607</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>76</v>
@@ -14224,7 +14320,7 @@
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>1050</v>
@@ -14254,7 +14350,7 @@
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>1026</v>
@@ -14285,10 +14381,10 @@
         <v>8</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
@@ -14316,7 +14412,7 @@
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H264" s="2" t="s">
         <v>1026</v>
@@ -14347,13 +14443,15 @@
         <v>8</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>1539</v>
-      </c>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
+        <v>1538</v>
+      </c>
+      <c r="H265" s="45" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I265" s="45"/>
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
@@ -14378,7 +14476,7 @@
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="4" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>1026</v>
@@ -14409,12 +14507,14 @@
         <v>8</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>1541</v>
-      </c>
-      <c r="H267" s="2"/>
+        <v>1540</v>
+      </c>
+      <c r="H267" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
@@ -14440,7 +14540,7 @@
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H268" s="2" t="s">
         <v>1026</v>
@@ -14471,12 +14571,14 @@
         <v>8</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H269" s="2"/>
+        <v>1542</v>
+      </c>
+      <c r="H269" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
@@ -14501,12 +14603,14 @@
         <v>8</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>1544</v>
-      </c>
-      <c r="H270" s="2"/>
+        <v>1543</v>
+      </c>
+      <c r="H270" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
@@ -14532,7 +14636,7 @@
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>1026</v>
@@ -14563,10 +14667,10 @@
         <v>8</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
@@ -14594,7 +14698,7 @@
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="4" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>1026</v>
@@ -14625,10 +14729,10 @@
         <v>8</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
@@ -14656,7 +14760,7 @@
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H275" s="2" t="s">
         <v>1026</v>
@@ -14687,10 +14791,10 @@
         <v>8</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H276" s="2" t="s">
         <v>1029</v>
@@ -14719,10 +14823,10 @@
         <v>8</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
@@ -14750,7 +14854,7 @@
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="4" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H278" s="2" t="s">
         <v>1026</v>
@@ -14781,10 +14885,10 @@
         <v>8</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
@@ -14812,7 +14916,7 @@
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="4" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H280" s="2" t="s">
         <v>1026</v>
@@ -14843,10 +14947,10 @@
         <v>8</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
@@ -14874,7 +14978,7 @@
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="4" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>1026</v>
@@ -14905,10 +15009,10 @@
         <v>8</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
@@ -14936,7 +15040,7 @@
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="4" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H284" s="2" t="s">
         <v>1026</v>
@@ -14967,10 +15071,10 @@
         <v>8</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
@@ -14998,7 +15102,7 @@
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="4" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H286" s="2" t="s">
         <v>1026</v>
@@ -15029,10 +15133,10 @@
         <v>8</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
@@ -15060,13 +15164,13 @@
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="4" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H288" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
@@ -15091,10 +15195,10 @@
         <v>8</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
@@ -15122,13 +15226,13 @@
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H290" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
@@ -15154,13 +15258,13 @@
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H291" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
@@ -15185,10 +15289,10 @@
         <v>8</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
@@ -15203,7 +15307,7 @@
         <v>729</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>704</v>
@@ -15215,14 +15319,14 @@
         <v>702</v>
       </c>
       <c r="F293" s="2"/>
-      <c r="G293" s="42" t="s">
-        <v>1907</v>
+      <c r="G293" s="40" t="s">
+        <v>1906</v>
       </c>
       <c r="H293" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
@@ -15235,7 +15339,7 @@
         <v>731</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>704</v>
@@ -15247,10 +15351,10 @@
         <v>8</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G294" s="42" t="s">
-        <v>1908</v>
+        <v>1142</v>
+      </c>
+      <c r="G294" s="40" t="s">
+        <v>1907</v>
       </c>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
@@ -15265,7 +15369,7 @@
         <v>733</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>704</v>
@@ -15277,14 +15381,14 @@
         <v>702</v>
       </c>
       <c r="F295" s="2"/>
-      <c r="G295" s="43" t="s">
-        <v>1909</v>
+      <c r="G295" s="41" t="s">
+        <v>1908</v>
       </c>
       <c r="H295" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
@@ -15297,7 +15401,7 @@
         <v>736</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>704</v>
@@ -15309,10 +15413,10 @@
         <v>8</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G296" s="43" t="s">
-        <v>1910</v>
+        <v>1142</v>
+      </c>
+      <c r="G296" s="41" t="s">
+        <v>1909</v>
       </c>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
@@ -15327,10 +15431,10 @@
         <v>738</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>23</v>
@@ -15340,7 +15444,7 @@
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H297" s="2" t="s">
         <v>1026</v>
@@ -15357,10 +15461,10 @@
         <v>741</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>7</v>
@@ -15369,12 +15473,14 @@
         <v>8</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>1571</v>
-      </c>
-      <c r="H298" s="2"/>
+        <v>1570</v>
+      </c>
+      <c r="H298" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
@@ -15387,10 +15493,10 @@
         <v>743</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>23</v>
@@ -15400,7 +15506,7 @@
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="4" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H299" s="2" t="s">
         <v>1026</v>
@@ -15417,10 +15523,10 @@
         <v>746</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>7</v>
@@ -15429,12 +15535,14 @@
         <v>8</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>1573</v>
-      </c>
-      <c r="H300" s="2"/>
+        <v>1572</v>
+      </c>
+      <c r="H300" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
@@ -15447,10 +15555,10 @@
         <v>749</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>23</v>
@@ -15460,9 +15568,9 @@
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="4" t="s">
-        <v>1574</v>
-      </c>
-      <c r="H301" s="2" t="s">
+        <v>1573</v>
+      </c>
+      <c r="H301" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I301" s="2"/>
@@ -15477,10 +15585,10 @@
         <v>752</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>7</v>
@@ -15489,12 +15597,14 @@
         <v>8</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="H302" s="2"/>
+        <v>1574</v>
+      </c>
+      <c r="H302" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
@@ -15507,10 +15617,10 @@
         <v>754</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>23</v>
@@ -15520,9 +15630,9 @@
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="4" t="s">
-        <v>1692</v>
-      </c>
-      <c r="H303" s="2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H303" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I303" s="2"/>
@@ -15537,10 +15647,10 @@
         <v>757</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>7</v>
@@ -15549,12 +15659,14 @@
         <v>8</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>1693</v>
-      </c>
-      <c r="H304" s="2"/>
+        <v>1692</v>
+      </c>
+      <c r="H304" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
@@ -15567,10 +15679,10 @@
         <v>760</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>23</v>
@@ -15580,9 +15692,9 @@
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="H305" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="H305" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I305" s="2"/>
@@ -15597,10 +15709,10 @@
         <v>762</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>7</v>
@@ -15609,12 +15721,14 @@
         <v>8</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>1695</v>
-      </c>
-      <c r="H306" s="2"/>
+        <v>1694</v>
+      </c>
+      <c r="H306" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I306" s="2"/>
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
@@ -15627,10 +15741,10 @@
         <v>766</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>23</v>
@@ -15640,9 +15754,9 @@
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="4" t="s">
-        <v>1696</v>
-      </c>
-      <c r="H307" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H307" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I307" s="2"/>
@@ -15657,10 +15771,10 @@
         <v>768</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>7</v>
@@ -15669,12 +15783,14 @@
         <v>8</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H308" s="2"/>
+        <v>1696</v>
+      </c>
+      <c r="H308" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
@@ -15687,7 +15803,7 @@
         <v>770</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>712</v>
@@ -15700,9 +15816,9 @@
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="4" t="s">
-        <v>1576</v>
-      </c>
-      <c r="H309" s="2" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H309" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I309" s="2"/>
@@ -15717,7 +15833,7 @@
         <v>771</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>712</v>
@@ -15729,12 +15845,14 @@
         <v>8</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>1577</v>
-      </c>
-      <c r="H310" s="2"/>
+        <v>1576</v>
+      </c>
+      <c r="H310" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I310" s="2"/>
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
@@ -15747,7 +15865,7 @@
         <v>772</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>712</v>
@@ -15760,9 +15878,9 @@
       </c>
       <c r="F311" s="2"/>
       <c r="G311" s="4" t="s">
-        <v>1698</v>
-      </c>
-      <c r="H311" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H311" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I311" s="2"/>
@@ -15777,7 +15895,7 @@
         <v>774</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>712</v>
@@ -15789,12 +15907,14 @@
         <v>8</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>1699</v>
-      </c>
-      <c r="H312" s="2"/>
+        <v>1698</v>
+      </c>
+      <c r="H312" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I312" s="2"/>
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
@@ -15807,7 +15927,7 @@
         <v>776</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>712</v>
@@ -15820,9 +15940,9 @@
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="4" t="s">
-        <v>1700</v>
-      </c>
-      <c r="H313" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H313" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I313" s="2"/>
@@ -15837,7 +15957,7 @@
         <v>778</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>712</v>
@@ -15849,12 +15969,14 @@
         <v>8</v>
       </c>
       <c r="F314" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>1701</v>
-      </c>
-      <c r="H314" s="2"/>
+        <v>1700</v>
+      </c>
+      <c r="H314" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I314" s="2"/>
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
@@ -15867,10 +15989,10 @@
         <v>780</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>23</v>
@@ -15880,9 +16002,9 @@
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="4" t="s">
-        <v>1703</v>
-      </c>
-      <c r="H315" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="H315" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I315" s="2"/>
@@ -15897,10 +16019,10 @@
         <v>782</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>7</v>
@@ -15909,12 +16031,14 @@
         <v>8</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>1702</v>
-      </c>
-      <c r="H316" s="2"/>
+        <v>1701</v>
+      </c>
+      <c r="H316" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I316" s="2"/>
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
@@ -15927,7 +16051,7 @@
         <v>784</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>709</v>
@@ -15940,9 +16064,9 @@
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="4" t="s">
-        <v>1578</v>
-      </c>
-      <c r="H317" s="2" t="s">
+        <v>1577</v>
+      </c>
+      <c r="H317" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I317" s="2"/>
@@ -15957,7 +16081,7 @@
         <v>786</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>709</v>
@@ -15969,12 +16093,14 @@
         <v>8</v>
       </c>
       <c r="F318" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H318" s="2"/>
+        <v>1578</v>
+      </c>
+      <c r="H318" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I318" s="2"/>
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
@@ -15987,7 +16113,7 @@
         <v>788</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>709</v>
@@ -16000,9 +16126,9 @@
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="H319" s="2" t="s">
+        <v>1579</v>
+      </c>
+      <c r="H319" s="45" t="s">
         <v>1026</v>
       </c>
       <c r="I319" s="2"/>
@@ -16017,7 +16143,7 @@
         <v>790</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>709</v>
@@ -16029,12 +16155,14 @@
         <v>8</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H320" s="2"/>
+        <v>1580</v>
+      </c>
+      <c r="H320" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
@@ -16047,7 +16175,7 @@
         <v>794</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>722</v>
@@ -16060,7 +16188,7 @@
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>1026</v>
@@ -16077,7 +16205,7 @@
         <v>797</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>722</v>
@@ -16090,7 +16218,7 @@
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>1026</v>
@@ -16107,7 +16235,7 @@
         <v>799</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>722</v>
@@ -16119,10 +16247,10 @@
         <v>8</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
@@ -16137,7 +16265,7 @@
         <v>801</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>722</v>
@@ -16150,7 +16278,7 @@
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>1026</v>
@@ -16167,7 +16295,7 @@
         <v>803</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>722</v>
@@ -16180,7 +16308,7 @@
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H325" s="2" t="s">
         <v>1026</v>
@@ -16197,7 +16325,7 @@
         <v>805</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>722</v>
@@ -16209,10 +16337,10 @@
         <v>8</v>
       </c>
       <c r="F326" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
@@ -16227,7 +16355,7 @@
         <v>807</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>722</v>
@@ -16240,7 +16368,7 @@
       </c>
       <c r="F327" s="2"/>
       <c r="G327" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>1026</v>
@@ -16257,7 +16385,7 @@
         <v>809</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>722</v>
@@ -16270,7 +16398,7 @@
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="4" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H328" s="2" t="s">
         <v>1026</v>
@@ -16287,7 +16415,7 @@
         <v>811</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>722</v>
@@ -16299,10 +16427,10 @@
         <v>8</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G329" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
@@ -16317,7 +16445,7 @@
         <v>813</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>722</v>
@@ -16330,7 +16458,7 @@
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H330" s="2" t="s">
         <v>1026</v>
@@ -16347,7 +16475,7 @@
         <v>815</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>722</v>
@@ -16360,7 +16488,7 @@
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H331" s="2" t="s">
         <v>1026</v>
@@ -16377,7 +16505,7 @@
         <v>817</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>722</v>
@@ -16389,10 +16517,10 @@
         <v>8</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
@@ -16407,7 +16535,7 @@
         <v>819</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>722</v>
@@ -16420,7 +16548,7 @@
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H333" s="2" t="s">
         <v>1026</v>
@@ -16437,7 +16565,7 @@
         <v>821</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>722</v>
@@ -16450,7 +16578,7 @@
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H334" s="2" t="s">
         <v>1026</v>
@@ -16467,7 +16595,7 @@
         <v>823</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>722</v>
@@ -16479,10 +16607,10 @@
         <v>8</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
@@ -16497,7 +16625,7 @@
         <v>825</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>717</v>
@@ -16510,7 +16638,7 @@
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H336" s="2" t="s">
         <v>1026</v>
@@ -16527,7 +16655,7 @@
         <v>827</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>717</v>
@@ -16540,7 +16668,7 @@
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="5" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>1026</v>
@@ -16557,7 +16685,7 @@
         <v>829</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>717</v>
@@ -16569,10 +16697,10 @@
         <v>8</v>
       </c>
       <c r="F338" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G338" s="5" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
@@ -16599,12 +16727,14 @@
         <v>8</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G339" s="5" t="s">
-        <v>1722</v>
-      </c>
-      <c r="H339" s="2"/>
+        <v>1721</v>
+      </c>
+      <c r="H339" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I339" s="2"/>
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
@@ -16617,7 +16747,7 @@
         <v>835</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>717</v>
@@ -16630,7 +16760,7 @@
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="5" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H340" s="2" t="s">
         <v>1026</v>
@@ -16647,7 +16777,7 @@
         <v>838</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>717</v>
@@ -16660,7 +16790,7 @@
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="5" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>1026</v>
@@ -16677,7 +16807,7 @@
         <v>841</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>717</v>
@@ -16689,10 +16819,10 @@
         <v>8</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G342" s="5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
@@ -16719,12 +16849,14 @@
         <v>8</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G343" s="5" t="s">
-        <v>1726</v>
-      </c>
-      <c r="H343" s="2"/>
+        <v>1725</v>
+      </c>
+      <c r="H343" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I343" s="2"/>
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
@@ -16737,7 +16869,7 @@
         <v>847</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>717</v>
@@ -16750,7 +16882,7 @@
       </c>
       <c r="F344" s="2"/>
       <c r="G344" s="5" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>1026</v>
@@ -16767,7 +16899,7 @@
         <v>850</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>717</v>
@@ -16780,7 +16912,7 @@
       </c>
       <c r="F345" s="2"/>
       <c r="G345" s="5" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>1026</v>
@@ -16797,7 +16929,7 @@
         <v>853</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>717</v>
@@ -16809,10 +16941,10 @@
         <v>8</v>
       </c>
       <c r="F346" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G346" s="5" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
@@ -16839,12 +16971,14 @@
         <v>8</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>1730</v>
-      </c>
-      <c r="H347" s="2"/>
+        <v>1729</v>
+      </c>
+      <c r="H347" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I347" s="2"/>
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
@@ -16857,7 +16991,7 @@
         <v>855</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>717</v>
@@ -16870,7 +17004,7 @@
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="5" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H348" s="2" t="s">
         <v>1026</v>
@@ -16887,7 +17021,7 @@
         <v>858</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>717</v>
@@ -16900,7 +17034,7 @@
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="5" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H349" s="2" t="s">
         <v>1026</v>
@@ -16917,7 +17051,7 @@
         <v>861</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>717</v>
@@ -16929,10 +17063,10 @@
         <v>8</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G350" s="5" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
@@ -16959,12 +17093,14 @@
         <v>8</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G351" s="5" t="s">
-        <v>1734</v>
-      </c>
-      <c r="H351" s="2"/>
+        <v>1733</v>
+      </c>
+      <c r="H351" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I351" s="2"/>
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
@@ -16989,12 +17125,14 @@
         <v>8</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1583</v>
-      </c>
-      <c r="H352" s="2"/>
+        <v>1582</v>
+      </c>
+      <c r="H352" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I352" s="2"/>
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
@@ -17019,12 +17157,14 @@
         <v>8</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G353" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="H353" s="2"/>
+        <v>1581</v>
+      </c>
+      <c r="H353" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I353" s="2"/>
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
@@ -17049,12 +17189,14 @@
         <v>8</v>
       </c>
       <c r="F354" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G354" s="8" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H354" s="2"/>
+        <v>1584</v>
+      </c>
+      <c r="H354" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I354" s="2"/>
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
@@ -17079,12 +17221,14 @@
         <v>8</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G355" s="9" t="s">
-        <v>1584</v>
-      </c>
-      <c r="H355" s="2"/>
+        <v>1583</v>
+      </c>
+      <c r="H355" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I355" s="2"/>
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
@@ -17110,7 +17254,7 @@
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="10" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H356" s="2" t="s">
         <v>1026</v>
@@ -17141,12 +17285,14 @@
         <v>8</v>
       </c>
       <c r="F357" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G357" s="11" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H357" s="2"/>
+        <v>1586</v>
+      </c>
+      <c r="H357" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I357" s="2"/>
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
@@ -17171,12 +17317,14 @@
         <v>8</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G358" s="13" t="s">
-        <v>1589</v>
-      </c>
-      <c r="H358" s="2"/>
+        <v>1588</v>
+      </c>
+      <c r="H358" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I358" s="2"/>
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
@@ -17201,12 +17349,14 @@
         <v>8</v>
       </c>
       <c r="F359" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G359" s="12" t="s">
-        <v>1588</v>
-      </c>
-      <c r="H359" s="2"/>
+        <v>1587</v>
+      </c>
+      <c r="H359" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I359" s="2"/>
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
@@ -17232,7 +17382,7 @@
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="14" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>1026</v>
@@ -17264,7 +17414,7 @@
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="15" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="H361" s="2" t="s">
         <v>1026</v>
@@ -17296,7 +17446,7 @@
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="16" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H362" s="2" t="s">
         <v>1026</v>
@@ -17326,13 +17476,13 @@
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="16" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="H363" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
@@ -17345,7 +17495,7 @@
         <v>883</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>773</v>
@@ -17358,7 +17508,7 @@
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="17" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H364" s="2" t="s">
         <v>1026</v>
@@ -17375,7 +17525,7 @@
         <v>884</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>773</v>
@@ -17387,10 +17537,10 @@
         <v>8</v>
       </c>
       <c r="F365" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G365" s="17" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
@@ -17405,7 +17555,7 @@
         <v>885</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>773</v>
@@ -17417,12 +17567,14 @@
         <v>8</v>
       </c>
       <c r="F366" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G366" s="17" t="s">
-        <v>1794</v>
-      </c>
-      <c r="H366" s="2"/>
+        <v>1793</v>
+      </c>
+      <c r="H366" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I366" s="2"/>
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
@@ -17435,7 +17587,7 @@
         <v>886</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>773</v>
@@ -17448,7 +17600,7 @@
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="17" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H367" s="2" t="s">
         <v>1026</v>
@@ -17465,7 +17617,7 @@
         <v>887</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>773</v>
@@ -17477,10 +17629,10 @@
         <v>8</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G368" s="17" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
@@ -17495,7 +17647,7 @@
         <v>888</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>773</v>
@@ -17507,12 +17659,14 @@
         <v>8</v>
       </c>
       <c r="F369" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G369" s="17" t="s">
-        <v>1797</v>
-      </c>
-      <c r="H369" s="2"/>
+        <v>1796</v>
+      </c>
+      <c r="H369" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I369" s="2"/>
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
@@ -17525,7 +17679,7 @@
         <v>889</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>773</v>
@@ -17538,7 +17692,7 @@
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="17" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H370" s="2" t="s">
         <v>1026</v>
@@ -17555,7 +17709,7 @@
         <v>890</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>773</v>
@@ -17567,10 +17721,10 @@
         <v>8</v>
       </c>
       <c r="F371" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G371" s="17" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
@@ -17585,7 +17739,7 @@
         <v>891</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>773</v>
@@ -17597,12 +17751,14 @@
         <v>8</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G372" s="17" t="s">
-        <v>1800</v>
-      </c>
-      <c r="H372" s="2"/>
+        <v>1799</v>
+      </c>
+      <c r="H372" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I372" s="2"/>
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
@@ -17615,7 +17771,7 @@
         <v>892</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>773</v>
@@ -17628,7 +17784,7 @@
       </c>
       <c r="F373" s="2"/>
       <c r="G373" s="18" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H373" s="2" t="s">
         <v>1026</v>
@@ -17645,7 +17801,7 @@
         <v>893</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>773</v>
@@ -17657,10 +17813,10 @@
         <v>8</v>
       </c>
       <c r="F374" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G374" s="18" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
@@ -17675,7 +17831,7 @@
         <v>894</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>773</v>
@@ -17687,12 +17843,14 @@
         <v>8</v>
       </c>
       <c r="F375" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G375" s="18" t="s">
-        <v>1803</v>
-      </c>
-      <c r="H375" s="2"/>
+        <v>1802</v>
+      </c>
+      <c r="H375" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I375" s="2"/>
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
@@ -17705,7 +17863,7 @@
         <v>895</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>769</v>
@@ -17718,7 +17876,7 @@
       </c>
       <c r="F376" s="2"/>
       <c r="G376" s="19" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>1026</v>
@@ -17735,7 +17893,7 @@
         <v>896</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>769</v>
@@ -17747,10 +17905,10 @@
         <v>8</v>
       </c>
       <c r="F377" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G377" s="19" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
@@ -17765,7 +17923,7 @@
         <v>897</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>769</v>
@@ -17777,12 +17935,14 @@
         <v>8</v>
       </c>
       <c r="F378" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G378" s="19" t="s">
-        <v>1806</v>
-      </c>
-      <c r="H378" s="2"/>
+        <v>1805</v>
+      </c>
+      <c r="H378" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I378" s="2"/>
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
@@ -17795,7 +17955,7 @@
         <v>898</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>769</v>
@@ -17808,7 +17968,7 @@
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="19" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>1026</v>
@@ -17825,7 +17985,7 @@
         <v>899</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>769</v>
@@ -17837,10 +17997,10 @@
         <v>8</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G380" s="19" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
@@ -17855,7 +18015,7 @@
         <v>900</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>769</v>
@@ -17867,12 +18027,14 @@
         <v>8</v>
       </c>
       <c r="F381" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G381" s="19" t="s">
-        <v>1809</v>
-      </c>
-      <c r="H381" s="2"/>
+        <v>1808</v>
+      </c>
+      <c r="H381" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I381" s="2"/>
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
@@ -17885,7 +18047,7 @@
         <v>901</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>769</v>
@@ -17898,7 +18060,7 @@
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="19" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H382" s="2" t="s">
         <v>1026</v>
@@ -17915,7 +18077,7 @@
         <v>902</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>769</v>
@@ -17927,10 +18089,10 @@
         <v>8</v>
       </c>
       <c r="F383" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G383" s="19" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
@@ -17945,7 +18107,7 @@
         <v>903</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>769</v>
@@ -17957,12 +18119,14 @@
         <v>8</v>
       </c>
       <c r="F384" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G384" s="19" t="s">
-        <v>1812</v>
-      </c>
-      <c r="H384" s="2"/>
+        <v>1811</v>
+      </c>
+      <c r="H384" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
@@ -17975,10 +18139,10 @@
         <v>904</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>12</v>
@@ -17988,7 +18152,7 @@
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="20" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>1026</v>
@@ -18005,10 +18169,10 @@
         <v>905</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>7</v>
@@ -18017,10 +18181,10 @@
         <v>8</v>
       </c>
       <c r="F386" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G386" s="20" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
@@ -18035,10 +18199,10 @@
         <v>906</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>7</v>
@@ -18047,12 +18211,14 @@
         <v>8</v>
       </c>
       <c r="F387" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G387" s="20" t="s">
-        <v>1815</v>
-      </c>
-      <c r="H387" s="2"/>
+        <v>1814</v>
+      </c>
+      <c r="H387" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I387" s="2"/>
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
@@ -18065,10 +18231,10 @@
         <v>907</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>12</v>
@@ -18078,7 +18244,7 @@
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="20" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H388" s="2" t="s">
         <v>1026</v>
@@ -18095,10 +18261,10 @@
         <v>908</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>7</v>
@@ -18107,10 +18273,10 @@
         <v>8</v>
       </c>
       <c r="F389" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G389" s="20" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
@@ -18125,10 +18291,10 @@
         <v>909</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>7</v>
@@ -18137,12 +18303,14 @@
         <v>8</v>
       </c>
       <c r="F390" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G390" s="20" t="s">
-        <v>1818</v>
-      </c>
-      <c r="H390" s="2"/>
+        <v>1817</v>
+      </c>
+      <c r="H390" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I390" s="2"/>
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
@@ -18158,7 +18326,7 @@
         <v>775</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>76</v>
@@ -18166,7 +18334,7 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="21" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H391" s="2" t="s">
         <v>1050</v>
@@ -18186,7 +18354,7 @@
         <v>777</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>76</v>
@@ -18196,7 +18364,7 @@
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="21" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H392" s="2" t="s">
         <v>1050</v>
@@ -18216,7 +18384,7 @@
         <v>779</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>76</v>
@@ -18226,7 +18394,7 @@
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="21" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H393" s="2" t="s">
         <v>1050</v>
@@ -18246,7 +18414,7 @@
         <v>781</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>76</v>
@@ -18256,7 +18424,7 @@
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="21" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H394" s="2" t="s">
         <v>1050</v>
@@ -18276,7 +18444,7 @@
         <v>783</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>76</v>
@@ -18286,7 +18454,7 @@
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="21" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H395" s="2" t="s">
         <v>1050</v>
@@ -18306,7 +18474,7 @@
         <v>785</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>76</v>
@@ -18316,7 +18484,7 @@
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="21" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H396" s="2" t="s">
         <v>1050</v>
@@ -18336,7 +18504,7 @@
         <v>787</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>76</v>
@@ -18346,7 +18514,7 @@
       </c>
       <c r="F397" s="2"/>
       <c r="G397" s="21" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H397" s="2" t="s">
         <v>1050</v>
@@ -18366,7 +18534,7 @@
         <v>789</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>76</v>
@@ -18376,7 +18544,7 @@
       </c>
       <c r="F398" s="2"/>
       <c r="G398" s="21" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H398" s="2" t="s">
         <v>1050</v>
@@ -18406,7 +18574,7 @@
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="22" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="H399" s="2" t="s">
         <v>1026</v>
@@ -18436,7 +18604,7 @@
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="23" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="H400" s="2" t="s">
         <v>1026</v>
@@ -18456,7 +18624,7 @@
         <v>798</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>76</v>
@@ -18466,7 +18634,7 @@
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="24" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="H401" s="2" t="s">
         <v>1050</v>
@@ -18486,7 +18654,7 @@
         <v>800</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>76</v>
@@ -18496,7 +18664,7 @@
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="24" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H402" s="2" t="s">
         <v>1050</v>
@@ -18516,7 +18684,7 @@
         <v>802</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>76</v>
@@ -18526,7 +18694,7 @@
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="24" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H403" s="2" t="s">
         <v>1050</v>
@@ -18546,7 +18714,7 @@
         <v>804</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>76</v>
@@ -18556,7 +18724,7 @@
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="24" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H404" s="2" t="s">
         <v>1050</v>
@@ -18576,7 +18744,7 @@
         <v>806</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>76</v>
@@ -18586,7 +18754,7 @@
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="24" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H405" s="2" t="s">
         <v>1050</v>
@@ -18606,7 +18774,7 @@
         <v>808</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>76</v>
@@ -18616,7 +18784,7 @@
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="24" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H406" s="2" t="s">
         <v>1050</v>
@@ -18636,7 +18804,7 @@
         <v>810</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>76</v>
@@ -18646,7 +18814,7 @@
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="24" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H407" s="2" t="s">
         <v>1050</v>
@@ -18666,7 +18834,7 @@
         <v>812</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>76</v>
@@ -18676,7 +18844,7 @@
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="24" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H408" s="2" t="s">
         <v>1050</v>
@@ -18696,7 +18864,7 @@
         <v>814</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>76</v>
@@ -18706,7 +18874,7 @@
       </c>
       <c r="F409" s="2"/>
       <c r="G409" s="24" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H409" s="2" t="s">
         <v>1050</v>
@@ -18726,7 +18894,7 @@
         <v>816</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>76</v>
@@ -18736,7 +18904,7 @@
       </c>
       <c r="F410" s="2"/>
       <c r="G410" s="24" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H410" s="2" t="s">
         <v>1050</v>
@@ -18756,7 +18924,7 @@
         <v>818</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>76</v>
@@ -18766,7 +18934,7 @@
       </c>
       <c r="F411" s="2"/>
       <c r="G411" s="24" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>1050</v>
@@ -18786,7 +18954,7 @@
         <v>820</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>76</v>
@@ -18796,7 +18964,7 @@
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="24" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>1050</v>
@@ -18816,7 +18984,7 @@
         <v>822</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>76</v>
@@ -18826,7 +18994,7 @@
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="24" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>1050</v>
@@ -18846,7 +19014,7 @@
         <v>824</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>76</v>
@@ -18856,7 +19024,7 @@
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="24" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>1050</v>
@@ -18876,7 +19044,7 @@
         <v>826</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>76</v>
@@ -18886,7 +19054,7 @@
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="24" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="H415" s="2" t="s">
         <v>1050</v>
@@ -18906,7 +19074,7 @@
         <v>828</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>76</v>
@@ -18916,7 +19084,7 @@
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="24" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="H416" s="2" t="s">
         <v>1050</v>
@@ -18946,13 +19114,13 @@
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="25" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="H417" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
@@ -18978,13 +19146,13 @@
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="H418" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I418" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
@@ -19010,13 +19178,13 @@
       </c>
       <c r="F419" s="2"/>
       <c r="G419" s="25" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="H419" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
@@ -19042,13 +19210,13 @@
       </c>
       <c r="F420" s="2"/>
       <c r="G420" s="25" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H420" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
@@ -19074,13 +19242,13 @@
       </c>
       <c r="F421" s="2"/>
       <c r="G421" s="25" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H421" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
@@ -19106,13 +19274,13 @@
       </c>
       <c r="F422" s="2"/>
       <c r="G422" s="25" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H422" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
@@ -19138,13 +19306,13 @@
       </c>
       <c r="F423" s="2"/>
       <c r="G423" s="25" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="H423" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
@@ -19170,13 +19338,13 @@
       </c>
       <c r="F424" s="2"/>
       <c r="G424" s="25" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="H424" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
@@ -19189,10 +19357,10 @@
         <v>944</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>1313</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>1314</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>12</v>
@@ -19202,13 +19370,13 @@
       </c>
       <c r="F425" s="2"/>
       <c r="G425" s="25" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="H425" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
@@ -19221,10 +19389,10 @@
         <v>945</v>
       </c>
       <c r="B426" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C426" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>1316</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>12</v>
@@ -19234,13 +19402,13 @@
       </c>
       <c r="F426" s="2"/>
       <c r="G426" s="25" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="H426" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
@@ -19266,13 +19434,13 @@
       </c>
       <c r="F427" s="2"/>
       <c r="G427" s="25" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="H427" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
@@ -19298,13 +19466,13 @@
       </c>
       <c r="F428" s="2"/>
       <c r="G428" s="25" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H428" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
@@ -19330,13 +19498,13 @@
       </c>
       <c r="F429" s="2"/>
       <c r="G429" s="25" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="H429" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
@@ -19362,13 +19530,13 @@
       </c>
       <c r="F430" s="2"/>
       <c r="G430" s="25" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="H430" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
@@ -19394,13 +19562,13 @@
       </c>
       <c r="F431" s="2"/>
       <c r="G431" s="25" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="H431" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
@@ -19426,13 +19594,13 @@
       </c>
       <c r="F432" s="2"/>
       <c r="G432" s="25" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="H432" s="2" t="s">
         <v>1026</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
@@ -19442,7 +19610,7 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="2" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>952</v>
@@ -19458,14 +19626,13 @@
       </c>
       <c r="F433" s="2"/>
       <c r="G433" s="26" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H433" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="I433" s="2" t="str">
-        <f>"-1"</f>
-        <v>-1</v>
+      <c r="I433" s="45" t="s">
+        <v>1914</v>
       </c>
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
@@ -19475,13 +19642,13 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>955</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>76</v>
@@ -19491,7 +19658,7 @@
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="27" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H434" s="2" t="s">
         <v>1050</v>
@@ -19505,13 +19672,13 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="2" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>956</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>76</v>
@@ -19531,13 +19698,13 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="2" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>957</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>76</v>
@@ -19547,7 +19714,7 @@
       </c>
       <c r="F436" s="2"/>
       <c r="G436" s="28" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H436" s="2" t="s">
         <v>1050</v>
@@ -19561,13 +19728,13 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="2" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>958</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>76</v>
@@ -19577,7 +19744,7 @@
       </c>
       <c r="F437" s="2"/>
       <c r="G437" s="28" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H437" s="2" t="s">
         <v>1050</v>
@@ -19591,13 +19758,13 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="2" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>959</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>76</v>
@@ -19607,7 +19774,7 @@
       </c>
       <c r="F438" s="2"/>
       <c r="G438" s="28" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H438" s="2" t="s">
         <v>1050</v>
@@ -19621,13 +19788,13 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>960</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>76</v>
@@ -19637,7 +19804,7 @@
       </c>
       <c r="F439" s="2"/>
       <c r="G439" s="28" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H439" s="2" t="s">
         <v>1050</v>
@@ -19651,7 +19818,7 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="2" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>961</v>
@@ -19667,12 +19834,15 @@
       </c>
       <c r="F440" s="2"/>
       <c r="G440" s="29" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H440" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="I440" s="2"/>
+      <c r="I440" s="2" t="str">
+        <f>"0-&gt;NA;-1"</f>
+        <v>0-&gt;NA;-1</v>
+      </c>
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
       <c r="L440" s="2"/>
@@ -19681,13 +19851,13 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>962</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>76</v>
@@ -19697,7 +19867,7 @@
       </c>
       <c r="F441" s="2"/>
       <c r="G441" s="30" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H441" s="2" t="s">
         <v>1050</v>
@@ -19711,13 +19881,13 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="2" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>963</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>76</v>
@@ -19737,13 +19907,13 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="2" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>964</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>76</v>
@@ -19753,7 +19923,7 @@
       </c>
       <c r="F443" s="2"/>
       <c r="G443" s="31" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H443" s="2" t="s">
         <v>1050</v>
@@ -19767,13 +19937,13 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="2" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>965</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>76</v>
@@ -19783,7 +19953,7 @@
       </c>
       <c r="F444" s="2"/>
       <c r="G444" s="31" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>1050</v>
@@ -19797,13 +19967,13 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>966</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>76</v>
@@ -19813,7 +19983,7 @@
       </c>
       <c r="F445" s="2"/>
       <c r="G445" s="31" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H445" s="2" t="s">
         <v>1050</v>
@@ -19827,13 +19997,13 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="2" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>967</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>76</v>
@@ -19843,7 +20013,7 @@
       </c>
       <c r="F446" s="2"/>
       <c r="G446" s="31" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>1050</v>
@@ -19857,7 +20027,7 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="2" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>968</v>
@@ -19873,7 +20043,7 @@
       </c>
       <c r="F447" s="2"/>
       <c r="G447" s="32" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H447" s="2" t="s">
         <v>1026</v>
@@ -19889,7 +20059,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>970</v>
@@ -19905,7 +20075,7 @@
       </c>
       <c r="F448" s="2"/>
       <c r="G448" s="32" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H448" s="2" t="s">
         <v>1026</v>
@@ -19921,7 +20091,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="2" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>972</v>
@@ -19937,7 +20107,7 @@
       </c>
       <c r="F449" s="2"/>
       <c r="G449" s="32" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H449" s="2" t="s">
         <v>1026</v>
@@ -19953,7 +20123,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="2" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>974</v>
@@ -19969,7 +20139,7 @@
       </c>
       <c r="F450" s="2"/>
       <c r="G450" s="33" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>1026</v>
@@ -19983,13 +20153,13 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="2" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>977</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>76</v>
@@ -19999,7 +20169,7 @@
       </c>
       <c r="F451" s="2"/>
       <c r="G451" s="34" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H451" s="2" t="s">
         <v>1050</v>
@@ -20013,13 +20183,13 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="2" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>978</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>76</v>
@@ -20029,7 +20199,7 @@
       </c>
       <c r="F452" s="2"/>
       <c r="G452" s="34" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H452" s="2" t="s">
         <v>1050</v>
@@ -20043,13 +20213,13 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="2" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>979</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>76</v>
@@ -20059,7 +20229,7 @@
       </c>
       <c r="F453" s="2"/>
       <c r="G453" s="34" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H453" s="2" t="s">
         <v>1050</v>
@@ -20073,13 +20243,13 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="2" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>980</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>76</v>
@@ -20089,7 +20259,7 @@
       </c>
       <c r="F454" s="2"/>
       <c r="G454" s="34" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H454" s="2" t="s">
         <v>1050</v>
@@ -20103,13 +20273,13 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="2" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>981</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>76</v>
@@ -20119,7 +20289,7 @@
       </c>
       <c r="F455" s="2"/>
       <c r="G455" s="34" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H455" s="2" t="s">
         <v>1050</v>
@@ -20133,13 +20303,13 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>982</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>76</v>
@@ -20149,7 +20319,7 @@
       </c>
       <c r="F456" s="2"/>
       <c r="G456" s="34" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H456" s="2" t="s">
         <v>1050</v>
@@ -20163,13 +20333,13 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="2" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>983</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>76</v>
@@ -20179,7 +20349,7 @@
       </c>
       <c r="F457" s="2"/>
       <c r="G457" s="34" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>1050</v>
@@ -20193,13 +20363,13 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="2" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>984</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D458" s="2" t="s">
         <v>76</v>
@@ -20209,7 +20379,7 @@
       </c>
       <c r="F458" s="2"/>
       <c r="G458" s="34" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H458" s="2" t="s">
         <v>1050</v>
@@ -20223,7 +20393,7 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="2" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>985</v>
@@ -20239,7 +20409,7 @@
       </c>
       <c r="F459" s="2"/>
       <c r="G459" s="35" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="H459" s="2" t="s">
         <v>1026</v>
@@ -20253,7 +20423,7 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>987</v>
@@ -20268,12 +20438,14 @@
         <v>8</v>
       </c>
       <c r="F460" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G460" s="36" t="s">
-        <v>1852</v>
-      </c>
-      <c r="H460" s="2"/>
+        <v>1851</v>
+      </c>
+      <c r="H460" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I460" s="2"/>
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
@@ -20283,13 +20455,13 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>989</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>76</v>
@@ -20299,7 +20471,7 @@
       </c>
       <c r="F461" s="2"/>
       <c r="G461" s="37" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H461" s="2" t="s">
         <v>1050</v>
@@ -20313,13 +20485,13 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="2" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>990</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>76</v>
@@ -20329,7 +20501,7 @@
       </c>
       <c r="F462" s="2"/>
       <c r="G462" s="37" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H462" s="2" t="s">
         <v>1050</v>
@@ -20343,13 +20515,13 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="2" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>991</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>76</v>
@@ -20359,7 +20531,7 @@
       </c>
       <c r="F463" s="2"/>
       <c r="G463" s="37" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H463" s="2" t="s">
         <v>1050</v>
@@ -20373,13 +20545,13 @@
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="2" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>992</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>76</v>
@@ -20389,7 +20561,7 @@
       </c>
       <c r="F464" s="2"/>
       <c r="G464" s="37" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="H464" s="2" t="s">
         <v>1050</v>
@@ -20403,13 +20575,13 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465" s="2" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>993</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D465" s="2" t="s">
         <v>76</v>
@@ -20419,7 +20591,7 @@
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="37" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H465" s="2" t="s">
         <v>1050</v>
@@ -20433,13 +20605,13 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="2" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>994</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D466" s="2" t="s">
         <v>76</v>
@@ -20449,7 +20621,7 @@
       </c>
       <c r="F466" s="2"/>
       <c r="G466" s="37" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="H466" s="2" t="s">
         <v>1050</v>
@@ -20463,13 +20635,13 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="2" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>995</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>76</v>
@@ -20479,7 +20651,7 @@
       </c>
       <c r="F467" s="2"/>
       <c r="G467" s="37" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="H467" s="2" t="s">
         <v>1050</v>
@@ -20493,13 +20665,13 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="2" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>996</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>76</v>
@@ -20509,7 +20681,7 @@
       </c>
       <c r="F468" s="2"/>
       <c r="G468" s="37" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>1050</v>
@@ -20523,7 +20695,7 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="2" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>997</v>
@@ -20539,7 +20711,7 @@
       </c>
       <c r="F469" s="2"/>
       <c r="G469" s="38" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H469" s="2" t="s">
         <v>1026</v>
@@ -20553,7 +20725,7 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="2" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>999</v>
@@ -20568,12 +20740,14 @@
         <v>8</v>
       </c>
       <c r="F470" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G470" s="39" t="s">
-        <v>1870</v>
-      </c>
-      <c r="H470" s="2"/>
+        <v>1869</v>
+      </c>
+      <c r="H470" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I470" s="2"/>
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
@@ -20583,10 +20757,10 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="2" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>1000</v>
@@ -20599,7 +20773,7 @@
       </c>
       <c r="F471" s="2"/>
       <c r="G471" s="39" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H471" s="2" t="s">
         <v>1026</v>
@@ -20613,7 +20787,7 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="2" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>1001</v>
@@ -20628,10 +20802,10 @@
         <v>8</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G472" s="39" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
@@ -20643,10 +20817,10 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="2" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>1000</v>
@@ -20659,7 +20833,7 @@
       </c>
       <c r="F473" s="2"/>
       <c r="G473" s="39" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H473" s="2" t="s">
         <v>1026</v>
@@ -20675,7 +20849,7 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="2" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>1002</v>
@@ -20690,12 +20864,14 @@
         <v>8</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G474" s="39" t="s">
-        <v>1874</v>
-      </c>
-      <c r="H474" s="2"/>
+        <v>1873</v>
+      </c>
+      <c r="H474" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I474" s="2"/>
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
@@ -20705,10 +20881,10 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475" s="2" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>1000</v>
@@ -20721,7 +20897,7 @@
       </c>
       <c r="F475" s="2"/>
       <c r="G475" s="39" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H475" s="2" t="s">
         <v>1026</v>
@@ -20735,7 +20911,7 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476" s="2" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>1003</v>
@@ -20750,10 +20926,10 @@
         <v>8</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G476" s="39" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
@@ -20765,10 +20941,10 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="2" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>1000</v>
@@ -20781,7 +20957,7 @@
       </c>
       <c r="F477" s="2"/>
       <c r="G477" s="39" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H477" s="2" t="s">
         <v>1026</v>
@@ -20797,7 +20973,7 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>1004</v>
@@ -20812,12 +20988,14 @@
         <v>8</v>
       </c>
       <c r="F478" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G478" s="39" t="s">
-        <v>1878</v>
-      </c>
-      <c r="H478" s="2"/>
+        <v>1877</v>
+      </c>
+      <c r="H478" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I478" s="2"/>
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
@@ -20827,10 +21005,10 @@
     </row>
     <row r="479" spans="1:14">
       <c r="A479" s="2" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>1000</v>
@@ -20843,7 +21021,7 @@
       </c>
       <c r="F479" s="2"/>
       <c r="G479" s="39" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H479" s="2" t="s">
         <v>1026</v>
@@ -20857,7 +21035,7 @@
     </row>
     <row r="480" spans="1:14">
       <c r="A480" s="2" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>1005</v>
@@ -20872,10 +21050,10 @@
         <v>8</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G480" s="39" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
@@ -20887,10 +21065,10 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="2" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>1000</v>
@@ -20903,7 +21081,7 @@
       </c>
       <c r="F481" s="2"/>
       <c r="G481" s="39" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H481" s="2" t="s">
         <v>1026</v>
@@ -20919,7 +21097,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="2" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>1006</v>
@@ -20934,12 +21112,14 @@
         <v>8</v>
       </c>
       <c r="F482" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G482" s="39" t="s">
-        <v>1882</v>
-      </c>
-      <c r="H482" s="2"/>
+        <v>1881</v>
+      </c>
+      <c r="H482" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I482" s="2"/>
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
@@ -20949,10 +21129,10 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="2" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>1000</v>
@@ -20965,7 +21145,7 @@
       </c>
       <c r="F483" s="2"/>
       <c r="G483" s="39" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H483" s="2" t="s">
         <v>1026</v>
@@ -20979,7 +21159,7 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="2" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>1007</v>
@@ -20994,10 +21174,10 @@
         <v>8</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G484" s="39" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
@@ -21009,10 +21189,10 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="2" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>1000</v>
@@ -21025,7 +21205,7 @@
       </c>
       <c r="F485" s="2"/>
       <c r="G485" s="39" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H485" s="2" t="s">
         <v>1026</v>
@@ -21041,7 +21221,7 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="2" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>1008</v>
@@ -21056,12 +21236,14 @@
         <v>8</v>
       </c>
       <c r="F486" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G486" s="39" t="s">
-        <v>1886</v>
-      </c>
-      <c r="H486" s="2"/>
+        <v>1885</v>
+      </c>
+      <c r="H486" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I486" s="2"/>
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
@@ -21071,10 +21253,10 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="2" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>1000</v>
@@ -21087,7 +21269,7 @@
       </c>
       <c r="F487" s="2"/>
       <c r="G487" s="39" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H487" s="2" t="s">
         <v>1026</v>
@@ -21101,7 +21283,7 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="2" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>1009</v>
@@ -21116,10 +21298,10 @@
         <v>8</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G488" s="39" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="H488" s="2"/>
       <c r="I488" s="2"/>
@@ -21131,10 +21313,10 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="2" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>1000</v>
@@ -21147,7 +21329,7 @@
       </c>
       <c r="F489" s="2"/>
       <c r="G489" s="39" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H489" s="2" t="s">
         <v>1026</v>
@@ -21163,7 +21345,7 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490" s="2" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>1010</v>
@@ -21178,12 +21360,14 @@
         <v>8</v>
       </c>
       <c r="F490" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G490" s="39" t="s">
-        <v>1890</v>
-      </c>
-      <c r="H490" s="2"/>
+        <v>1889</v>
+      </c>
+      <c r="H490" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I490" s="2"/>
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
@@ -21193,10 +21377,10 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="2" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>1000</v>
@@ -21209,7 +21393,7 @@
       </c>
       <c r="F491" s="2"/>
       <c r="G491" s="39" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="H491" s="2" t="s">
         <v>1026</v>
@@ -21223,7 +21407,7 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492" s="2" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>1011</v>
@@ -21238,10 +21422,10 @@
         <v>8</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G492" s="39" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H492" s="2"/>
       <c r="I492" s="2"/>
@@ -21253,10 +21437,10 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493" s="2" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>1000</v>
@@ -21269,7 +21453,7 @@
       </c>
       <c r="F493" s="2"/>
       <c r="G493" s="39" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H493" s="2" t="s">
         <v>1026</v>
@@ -21285,7 +21469,7 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="2" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>1012</v>
@@ -21300,12 +21484,14 @@
         <v>8</v>
       </c>
       <c r="F494" s="2" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G494" s="39" t="s">
-        <v>1894</v>
-      </c>
-      <c r="H494" s="2"/>
+        <v>1893</v>
+      </c>
+      <c r="H494" s="45" t="s">
+        <v>1910</v>
+      </c>
       <c r="I494" s="2"/>
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
@@ -21315,10 +21501,10 @@
     </row>
     <row r="495" spans="1:14">
       <c r="A495" s="2" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>1000</v>
@@ -21331,7 +21517,7 @@
       </c>
       <c r="F495" s="2"/>
       <c r="G495" s="39" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H495" s="2" t="s">
         <v>1026</v>
@@ -21343,261 +21529,265 @@
       <c r="M495" s="2"/>
       <c r="N495" s="2"/>
     </row>
-    <row r="496" spans="1:14">
-      <c r="A496" s="3" t="s">
+    <row r="496" spans="1:14" s="45" customFormat="1">
+      <c r="A496" s="45" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B496" s="45" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C496" s="45" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D496" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E496" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F496" s="45" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G496" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H496" s="45" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" s="45" customFormat="1">
+      <c r="A497" s="45" t="s">
         <v>1770</v>
       </c>
-      <c r="B496" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C496" s="3" t="s">
+      <c r="B497" s="45" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C497" s="45" t="s">
         <v>1000</v>
       </c>
-      <c r="D496" s="3" t="s">
+      <c r="D497" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E497" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G497" s="4" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H497" s="45" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I497" s="45" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" s="45" customFormat="1">
+      <c r="A498" s="45" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B498" s="45" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C498" s="45" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D498" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E496" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F496" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G496" s="39" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H496" s="2"/>
-    </row>
-    <row r="497" spans="1:9">
-      <c r="A497" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B497" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C497" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E497" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G497" s="39" t="s">
+      <c r="E498" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F498" s="45" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G498" s="4" t="s">
         <v>1897</v>
       </c>
-      <c r="H497" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="I497" s="2" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="498" spans="1:9">
-      <c r="A498" s="3" t="s">
+      <c r="H498" s="45" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" s="45" customFormat="1">
+      <c r="A499" s="45" t="s">
         <v>1772</v>
       </c>
-      <c r="B498" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E498" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F498" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G498" s="40" t="s">
+      <c r="B499" s="45" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C499" s="45" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D499" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E499" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G499" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="H498" s="2"/>
-    </row>
-    <row r="499" spans="1:9">
-      <c r="A499" s="3" t="s">
+      <c r="H499" s="45" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" s="45" customFormat="1">
+      <c r="A500" s="45" t="s">
         <v>1773</v>
       </c>
-      <c r="B499" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C499" s="3" t="s">
+      <c r="B500" s="45" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C500" s="45" t="s">
         <v>1273</v>
       </c>
-      <c r="D499" s="3" t="s">
+      <c r="D500" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E499" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G499" s="41" t="s">
+      <c r="E500" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G500" s="4" t="s">
         <v>1899</v>
       </c>
-      <c r="H499" s="2" t="s">
+      <c r="H500" s="45" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
-      <c r="A500" s="3" t="s">
+    <row r="501" spans="1:9" s="45" customFormat="1">
+      <c r="A501" s="45" t="s">
         <v>1774</v>
       </c>
-      <c r="B500" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C500" s="3" t="s">
+      <c r="B501" s="45" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C501" s="45" t="s">
         <v>1274</v>
       </c>
-      <c r="D500" s="3" t="s">
+      <c r="D501" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E500" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G500" s="41" t="s">
+      <c r="E501" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G501" s="4" t="s">
         <v>1900</v>
       </c>
-      <c r="H500" s="2" t="s">
+      <c r="H501" s="45" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
-      <c r="A501" s="3" t="s">
+    <row r="502" spans="1:9" s="45" customFormat="1">
+      <c r="A502" s="45" t="s">
         <v>1775</v>
       </c>
-      <c r="B501" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C501" s="3" t="s">
+      <c r="B502" s="45" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C502" s="45" t="s">
         <v>1275</v>
       </c>
-      <c r="D501" s="3" t="s">
+      <c r="D502" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E501" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G501" s="41" t="s">
+      <c r="E502" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G502" s="4" t="s">
         <v>1901</v>
       </c>
-      <c r="H501" s="2" t="s">
+      <c r="H502" s="45" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="502" spans="1:9">
-      <c r="A502" s="3" t="s">
+    <row r="503" spans="1:9" s="45" customFormat="1">
+      <c r="A503" s="45" t="s">
         <v>1776</v>
       </c>
-      <c r="B502" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C502" s="3" t="s">
+      <c r="B503" s="45" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C503" s="45" t="s">
         <v>1276</v>
       </c>
-      <c r="D502" s="3" t="s">
+      <c r="D503" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E502" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G502" s="41" t="s">
+      <c r="E503" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G503" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="H502" s="2" t="s">
+      <c r="H503" s="45" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="503" spans="1:9">
-      <c r="A503" s="3" t="s">
+    <row r="504" spans="1:9" s="45" customFormat="1">
+      <c r="A504" s="45" t="s">
         <v>1777</v>
       </c>
-      <c r="B503" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C503" s="3" t="s">
+      <c r="B504" s="45" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C504" s="45" t="s">
         <v>1277</v>
       </c>
-      <c r="D503" s="3" t="s">
+      <c r="D504" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E503" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G503" s="41" t="s">
+      <c r="E504" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G504" s="4" t="s">
         <v>1903</v>
       </c>
-      <c r="H503" s="2" t="s">
+      <c r="H504" s="45" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
-      <c r="A504" s="3" t="s">
+    <row r="505" spans="1:9" s="45" customFormat="1">
+      <c r="A505" s="45" t="s">
         <v>1778</v>
       </c>
-      <c r="B504" s="3" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C504" s="3" t="s">
+      <c r="B505" s="45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C505" s="45" t="s">
         <v>1278</v>
       </c>
-      <c r="D504" s="3" t="s">
+      <c r="D505" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E504" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G504" s="41" t="s">
+      <c r="E505" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G505" s="4" t="s">
         <v>1904</v>
       </c>
-      <c r="H504" s="2" t="s">
+      <c r="H505" s="45" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
-      <c r="A505" s="3" t="s">
+    <row r="506" spans="1:9" s="45" customFormat="1">
+      <c r="A506" s="45" t="s">
         <v>1779</v>
       </c>
-      <c r="B505" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C505" s="3" t="s">
+      <c r="B506" s="45" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C506" s="45" t="s">
         <v>1279</v>
       </c>
-      <c r="D505" s="3" t="s">
+      <c r="D506" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="E505" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G505" s="41" t="s">
+      <c r="E506" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G506" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="H505" s="2" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="506" spans="1:9">
-      <c r="A506" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="B506" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D506" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E506" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G506" s="41" t="s">
-        <v>1906</v>
-      </c>
-      <c r="H506" s="2" t="s">
+      <c r="H506" s="45" t="s">
         <v>1050</v>
       </c>
     </row>
